--- a/service-system/src/main/resources/static/构造深度手工铺沙法.xlsx
+++ b/service-system/src/main/resources/static/构造深度手工铺沙法.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD1381-0CF7-4F2F-8E2A-48D81461B805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CCD021-D714-4B71-9E37-A4398940C514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="混凝土桥" sheetId="26" r:id="rId1"/>
@@ -344,9 +344,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -356,6 +353,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -364,12 +370,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -394,9 +394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -434,9 +434,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,26 +469,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,26 +504,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -719,13 +685,13 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12" style="10" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="10" customWidth="1"/>
     <col min="3" max="4" width="5.75" style="10" customWidth="1"/>
     <col min="5" max="5" width="5.875" style="10" customWidth="1"/>
@@ -740,116 +706,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="12" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
@@ -877,7 +843,7 @@
       <c r="K6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="18"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1239,6 +1205,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:N3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:N4"/>
@@ -1249,20 +1222,12 @@
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.9055118110236221" bottom="0.98425196850393704" header="0.70866141732283472" footer="0.70866141732283472"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L            检测：&amp;C                                             复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -1274,18 +1239,18 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H1:H1048576"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="10" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="10" customWidth="1"/>
     <col min="3" max="4" width="5.75" style="10" customWidth="1"/>
     <col min="5" max="5" width="5.875" style="10" customWidth="1"/>
     <col min="6" max="7" width="5.75" style="10" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="10" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="10" customWidth="1"/>
     <col min="9" max="10" width="5.75" style="10" customWidth="1"/>
     <col min="11" max="11" width="6" style="10" customWidth="1"/>
     <col min="12" max="12" width="5.75" style="10" customWidth="1"/>
@@ -1295,116 +1260,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="12" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1432,7 +1397,7 @@
       <c r="K6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="18"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1794,6 +1759,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:N3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:N4"/>
@@ -1804,20 +1776,12 @@
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.9055118110236221" bottom="0.98425196850393704" header="0.70866141732283472" footer="0.70866141732283472"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L            检测：&amp;C                                             复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -1830,10 +1794,10 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" style="10" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="10" customWidth="1"/>
@@ -1850,116 +1814,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="12" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1987,7 +1951,7 @@
       <c r="K6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="18"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="9" t="s">
         <v>14</v>
       </c>
@@ -2349,6 +2313,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2356,23 +2330,12 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:N3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.9055118110236221" bottom="0.98425196850393704" header="0.70866141732283472" footer="0.70866141732283472"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L            检测：&amp;C                                             复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>